--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>15.09508766666667</v>
+        <v>6.794730333333334</v>
       </c>
       <c r="H2">
-        <v>45.285263</v>
+        <v>20.384191</v>
       </c>
       <c r="I2">
-        <v>0.03390535125908364</v>
+        <v>0.01549131991191145</v>
       </c>
       <c r="J2">
-        <v>0.03390535125908364</v>
+        <v>0.01549131991191145</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.306170666666667</v>
+        <v>6.579711666666667</v>
       </c>
       <c r="N2">
-        <v>21.918512</v>
+        <v>19.739135</v>
       </c>
       <c r="O2">
-        <v>0.3391103748162015</v>
+        <v>0.3046157543678319</v>
       </c>
       <c r="P2">
-        <v>0.3391103748162015</v>
+        <v>0.3046157543678319</v>
       </c>
       <c r="Q2">
-        <v>110.2872867209618</v>
+        <v>44.70736644608723</v>
       </c>
       <c r="R2">
-        <v>992.585580488656</v>
+        <v>402.3662980147851</v>
       </c>
       <c r="S2">
-        <v>0.01149765637374283</v>
+        <v>0.004718900101120324</v>
       </c>
       <c r="T2">
-        <v>0.01149765637374283</v>
+        <v>0.004718900101120323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>15.09508766666667</v>
+        <v>6.794730333333334</v>
       </c>
       <c r="H3">
-        <v>45.285263</v>
+        <v>20.384191</v>
       </c>
       <c r="I3">
-        <v>0.03390535125908364</v>
+        <v>0.01549131991191145</v>
       </c>
       <c r="J3">
-        <v>0.03390535125908364</v>
+        <v>0.01549131991191145</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.033654666666665</v>
+        <v>9.033654666666669</v>
       </c>
       <c r="N3">
         <v>27.100964</v>
       </c>
       <c r="O3">
-        <v>0.4192902355744032</v>
+        <v>0.4182240302300713</v>
       </c>
       <c r="P3">
-        <v>0.4192902355744032</v>
+        <v>0.4182240302300712</v>
       </c>
       <c r="Q3">
-        <v>136.3638091437257</v>
+        <v>61.38124738445824</v>
       </c>
       <c r="R3">
-        <v>1227.274282293532</v>
+        <v>552.4312264601241</v>
       </c>
       <c r="S3">
-        <v>0.01421618271665407</v>
+        <v>0.006478842247142961</v>
       </c>
       <c r="T3">
-        <v>0.01421618271665407</v>
+        <v>0.00647884224714296</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>15.09508766666667</v>
+        <v>6.794730333333334</v>
       </c>
       <c r="H4">
-        <v>45.285263</v>
+        <v>20.384191</v>
       </c>
       <c r="I4">
-        <v>0.03390535125908364</v>
+        <v>0.01549131991191145</v>
       </c>
       <c r="J4">
-        <v>0.03390535125908364</v>
+        <v>0.01549131991191145</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.205285666666667</v>
+        <v>5.986671</v>
       </c>
       <c r="N4">
-        <v>15.615857</v>
+        <v>17.960013</v>
       </c>
       <c r="O4">
-        <v>0.2415993896093952</v>
+        <v>0.2771602154020968</v>
       </c>
       <c r="P4">
-        <v>0.2415993896093952</v>
+        <v>0.2771602154020968</v>
       </c>
       <c r="Q4">
-        <v>78.57424346837678</v>
+        <v>40.67781503938701</v>
       </c>
       <c r="R4">
-        <v>707.1681912153911</v>
+        <v>366.100335354483</v>
       </c>
       <c r="S4">
-        <v>0.008191512168686748</v>
+        <v>0.00429357756364817</v>
       </c>
       <c r="T4">
-        <v>0.008191512168686747</v>
+        <v>0.00429357756364817</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>398.9908546666667</v>
+        <v>398.9908546666666</v>
       </c>
       <c r="H5">
         <v>1196.972564</v>
       </c>
       <c r="I5">
-        <v>0.8961806234824337</v>
+        <v>0.9096600848522713</v>
       </c>
       <c r="J5">
-        <v>0.8961806234824337</v>
+        <v>0.9096600848522712</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.306170666666667</v>
+        <v>6.579711666666667</v>
       </c>
       <c r="N5">
-        <v>21.918512</v>
+        <v>19.739135</v>
       </c>
       <c r="O5">
-        <v>0.3391103748162015</v>
+        <v>0.3046157543678319</v>
       </c>
       <c r="P5">
-        <v>0.3391103748162015</v>
+        <v>0.3046157543678319</v>
       </c>
       <c r="Q5">
-        <v>2915.095278633863</v>
+        <v>2625.244781343571</v>
       </c>
       <c r="R5">
-        <v>26235.85750770477</v>
+        <v>23627.20303209214</v>
       </c>
       <c r="S5">
-        <v>0.3039041471321453</v>
+        <v>0.2770967929655807</v>
       </c>
       <c r="T5">
-        <v>0.3039041471321453</v>
+        <v>0.2770967929655806</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>398.9908546666667</v>
+        <v>398.9908546666666</v>
       </c>
       <c r="H6">
         <v>1196.972564</v>
       </c>
       <c r="I6">
-        <v>0.8961806234824337</v>
+        <v>0.9096600848522713</v>
       </c>
       <c r="J6">
-        <v>0.8961806234824337</v>
+        <v>0.9096600848522712</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.033654666666665</v>
+        <v>9.033654666666669</v>
       </c>
       <c r="N6">
         <v>27.100964</v>
       </c>
       <c r="O6">
-        <v>0.4192902355744032</v>
+        <v>0.4182240302300713</v>
       </c>
       <c r="P6">
-        <v>0.4192902355744032</v>
+        <v>0.4182240302300712</v>
       </c>
       <c r="Q6">
         <v>3604.345596216855</v>
@@ -818,10 +818,10 @@
         <v>32439.1103659517</v>
       </c>
       <c r="S6">
-        <v>0.3757597847371651</v>
+        <v>0.3804417068263455</v>
       </c>
       <c r="T6">
-        <v>0.3757597847371651</v>
+        <v>0.3804417068263454</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>398.9908546666667</v>
+        <v>398.9908546666666</v>
       </c>
       <c r="H7">
         <v>1196.972564</v>
       </c>
       <c r="I7">
-        <v>0.8961806234824337</v>
+        <v>0.9096600848522713</v>
       </c>
       <c r="J7">
-        <v>0.8961806234824337</v>
+        <v>0.9096600848522712</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.205285666666667</v>
+        <v>5.986671</v>
       </c>
       <c r="N7">
-        <v>15.615857</v>
+        <v>17.960013</v>
       </c>
       <c r="O7">
-        <v>0.2415993896093952</v>
+        <v>0.2771602154020968</v>
       </c>
       <c r="P7">
-        <v>0.2415993896093952</v>
+        <v>0.2771602154020968</v>
       </c>
       <c r="Q7">
-        <v>2076.861376927483</v>
+        <v>2388.626978898148</v>
       </c>
       <c r="R7">
-        <v>18691.75239234735</v>
+        <v>21497.64281008333</v>
       </c>
       <c r="S7">
-        <v>0.2165166916131232</v>
+        <v>0.2521215850603452</v>
       </c>
       <c r="T7">
-        <v>0.2165166916131232</v>
+        <v>0.2521215850603452</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>31.126601</v>
+        <v>32.82974100000001</v>
       </c>
       <c r="H8">
-        <v>93.379803</v>
+        <v>98.48922300000001</v>
       </c>
       <c r="I8">
-        <v>0.06991402525848271</v>
+        <v>0.0748485952358172</v>
       </c>
       <c r="J8">
-        <v>0.06991402525848271</v>
+        <v>0.07484859523581719</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.306170666666667</v>
+        <v>6.579711666666667</v>
       </c>
       <c r="N8">
-        <v>21.918512</v>
+        <v>19.739135</v>
       </c>
       <c r="O8">
-        <v>0.3391103748162015</v>
+        <v>0.3046157543678319</v>
       </c>
       <c r="P8">
-        <v>0.3391103748162015</v>
+        <v>0.3046157543678319</v>
       </c>
       <c r="Q8">
-        <v>227.4162591792373</v>
+        <v>216.010229871345</v>
       </c>
       <c r="R8">
-        <v>2046.746332613136</v>
+        <v>1944.092068842105</v>
       </c>
       <c r="S8">
-        <v>0.02370857131031345</v>
+        <v>0.02280006130113097</v>
       </c>
       <c r="T8">
-        <v>0.02370857131031345</v>
+        <v>0.02280006130113096</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>31.126601</v>
+        <v>32.82974100000001</v>
       </c>
       <c r="H9">
-        <v>93.379803</v>
+        <v>98.48922300000001</v>
       </c>
       <c r="I9">
-        <v>0.06991402525848271</v>
+        <v>0.0748485952358172</v>
       </c>
       <c r="J9">
-        <v>0.06991402525848271</v>
+        <v>0.07484859523581719</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.033654666666665</v>
+        <v>9.033654666666669</v>
       </c>
       <c r="N9">
         <v>27.100964</v>
       </c>
       <c r="O9">
-        <v>0.4192902355744032</v>
+        <v>0.4182240302300713</v>
       </c>
       <c r="P9">
-        <v>0.4192902355744032</v>
+        <v>0.4182240302300712</v>
       </c>
       <c r="Q9">
-        <v>281.1869643811212</v>
+        <v>296.5725429901081</v>
       </c>
       <c r="R9">
-        <v>2530.682679430092</v>
+        <v>2669.152886910973</v>
       </c>
       <c r="S9">
-        <v>0.02931426812058399</v>
+        <v>0.03130348115658278</v>
       </c>
       <c r="T9">
-        <v>0.02931426812058399</v>
+        <v>0.03130348115658277</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.126601</v>
+        <v>32.82974100000001</v>
       </c>
       <c r="H10">
-        <v>93.379803</v>
+        <v>98.48922300000001</v>
       </c>
       <c r="I10">
-        <v>0.06991402525848271</v>
+        <v>0.0748485952358172</v>
       </c>
       <c r="J10">
-        <v>0.06991402525848271</v>
+        <v>0.07484859523581719</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.205285666666667</v>
+        <v>5.986671</v>
       </c>
       <c r="N10">
-        <v>15.615857</v>
+        <v>17.960013</v>
       </c>
       <c r="O10">
-        <v>0.2415993896093952</v>
+        <v>0.2771602154020968</v>
       </c>
       <c r="P10">
-        <v>0.2415993896093952</v>
+        <v>0.2771602154020968</v>
       </c>
       <c r="Q10">
-        <v>162.0228500373523</v>
+        <v>196.540858382211</v>
       </c>
       <c r="R10">
-        <v>1458.205650336171</v>
+        <v>1768.867725439899</v>
       </c>
       <c r="S10">
-        <v>0.01689118582758526</v>
+        <v>0.02074505277810345</v>
       </c>
       <c r="T10">
-        <v>0.01689118582758526</v>
+        <v>0.02074505277810345</v>
       </c>
     </row>
   </sheetData>
